--- a/LISTADO.xlsx
+++ b/LISTADO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noelia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noelia\Desktop\SIN_Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0C7459-7283-406A-963D-36DFCBCE1249}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA26943-783E-4E9E-8960-09A6FB12CB8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3075" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="145">
   <si>
     <t>MARCA</t>
   </si>
@@ -457,13 +457,16 @@
   </si>
   <si>
     <t>269.99</t>
+  </si>
+  <si>
+    <t>128MB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +477,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,10 +516,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -790,25 +804,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1059,25 +1073,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -1085,46 +1099,11 @@
       <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="J8">
-        <v>189</v>
+      <c r="J8" t="s">
+        <v>142</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9">
-        <v>162.9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1132,22 +1111,22 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -1156,10 +1135,10 @@
         <v>27</v>
       </c>
       <c r="J10">
-        <v>379</v>
+        <v>189</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1167,34 +1146,34 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
         <v>27</v>
       </c>
       <c r="J11">
-        <v>215</v>
+        <v>162.9</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1202,34 +1181,34 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
       </c>
       <c r="J12">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1237,34 +1216,34 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
         <v>27</v>
       </c>
       <c r="J13">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1272,13 +1251,13 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
@@ -1287,229 +1266,194 @@
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
         <v>27</v>
       </c>
-      <c r="J14" t="s">
-        <v>90</v>
+      <c r="J14">
+        <v>349</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
       </c>
       <c r="J15">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
         <v>27</v>
       </c>
-      <c r="J16">
-        <v>87</v>
+      <c r="J16" t="s">
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17">
-        <v>699</v>
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
         <v>27</v>
       </c>
       <c r="J18">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="K18" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1517,175 +1461,278 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="F21" t="s">
-        <v>122</v>
-      </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s">
         <v>27</v>
       </c>
-      <c r="J22" t="s">
-        <v>129</v>
+      <c r="J22">
+        <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J23">
-        <v>299</v>
+        <v>699</v>
       </c>
       <c r="K23" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s">
         <v>27</v>
       </c>
-      <c r="J24" t="s">
-        <v>143</v>
+      <c r="J24">
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" t="s">
-        <v>142</v>
+        <v>109</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
       </c>
       <c r="K25" t="s">
-        <v>141</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
